--- a/DATA_goal/Junction_Flooding_303.xlsx
+++ b/DATA_goal/Junction_Flooding_303.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -655,103 +655,103 @@
         <v>44984.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.79</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.38</v>
+        <v>33.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>4.95</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="O2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.73</v>
+        <v>227.27</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.29</v>
+        <v>42.87</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.83</v>
+        <v>28.32</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.5</v>
+        <v>24.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.39</v>
+        <v>43.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44984.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.35</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.4</v>
+        <v>23.97</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.72</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.28</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.93</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44984.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J4" s="4" t="n">
+      <c r="S4" s="4" t="n">
         <v>0.76</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>16.43</v>
+        <v>164.34</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.15</v>
+        <v>31.47</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.1</v>
+        <v>20.97</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.46</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.26</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.04</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.79</v>
+        <v>37.88</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44984.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.44</v>
+        <v>34.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.81</v>
+        <v>28.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.81</v>
+        <v>48.14</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>181.52</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>1.92</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>2.34</v>
+        <v>23.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.37</v>
+        <v>43.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_303.xlsx
+++ b/DATA_goal/Junction_Flooding_303.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44984.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.7</v>
+        <v>19.697</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.276</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>4.055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.79</v>
+        <v>41.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.75</v>
+        <v>33.752</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.5</v>
+        <v>15.501</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.49</v>
+        <v>49.487</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.981</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.14</v>
+        <v>15.136</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.47</v>
+        <v>16.473</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>17.17</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.95</v>
+        <v>4.948</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.54</v>
+        <v>21.544</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.13</v>
+        <v>13.131</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.48</v>
+        <v>3.479</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.254</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>227.27</v>
+        <v>227.272</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.87</v>
+        <v>42.867</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.32</v>
+        <v>28.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.5</v>
+        <v>14.504</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.98</v>
+        <v>2.984</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.96</v>
+        <v>24.958</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.349</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.95</v>
+        <v>16.948</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>43.88</v>
+        <v>43.884</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.87</v>
+        <v>7.874</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44984.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.73</v>
+        <v>6.726</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.34</v>
+        <v>4.343</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.485</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.35</v>
+        <v>14.345</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.34</v>
+        <v>11.336</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.29</v>
+        <v>5.294</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.97</v>
+        <v>23.969</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.35</v>
+        <v>3.354</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.87</v>
+        <v>4.875</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.72</v>
+        <v>5.722</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.87</v>
+        <v>5.867</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.32</v>
+        <v>7.316</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.76</v>
+        <v>4.761</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.479</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.81999999999999</v>
+        <v>72.82299999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.93</v>
+        <v>14.933</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.67</v>
+        <v>9.672000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.93</v>
+        <v>4.931</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.237</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.2</v>
+        <v>11.202</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.04</v>
+        <v>4.044</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.71</v>
+        <v>4.712</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.8</v>
+        <v>5.798</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.1</v>
+        <v>22.103</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.59</v>
+        <v>2.594</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.08</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="4">
@@ -863,28 +863,28 @@
         <v>44984.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.41</v>
+        <v>14.413</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.37</v>
+        <v>10.365</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.254</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.21</v>
+        <v>31.213</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.4</v>
+        <v>25.399</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.97</v>
+        <v>41.974</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>7.61</v>
@@ -896,70 +896,70 @@
         <v>12.53</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.12</v>
+        <v>13.119</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.62</v>
+        <v>3.622</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.93</v>
+        <v>15.929</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.66</v>
+        <v>9.662000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.037</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.34</v>
+        <v>164.337</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.47</v>
+        <v>31.468</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.97</v>
+        <v>20.972</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11</v>
+        <v>10.996</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.86</v>
+        <v>1.864</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.46</v>
+        <v>20.463</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.26</v>
+        <v>8.265000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.695</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.04</v>
+        <v>13.036</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>37.88</v>
+        <v>37.882</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.8</v>
+        <v>5.798</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44984.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.93</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.69</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.25</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>57.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_303.xlsx
+++ b/DATA_goal/Junction_Flooding_303.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44984.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.57</v>
+        <v>11.568</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.087</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.4</v>
+        <v>34.404</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.11</v>
+        <v>28.109</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.48</v>
+        <v>12.476</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.14</v>
+        <v>48.139</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.464</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.52</v>
+        <v>12.516</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>13.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.52</v>
+        <v>14.516</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.99</v>
+        <v>3.985</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.6</v>
+        <v>17.605</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.54</v>
+        <v>10.538</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>181.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.7</v>
+        <v>34.698</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.24</v>
+        <v>23.236</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>12.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.38</v>
+        <v>23.385</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.026</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.6</v>
+        <v>10.599</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.43</v>
+        <v>14.433</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>43.68</v>
+        <v>43.683</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.42</v>
+        <v>6.417</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44984.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>45.93</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>63.92</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>244.48</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>31.14</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>57.93</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_303.xlsx
+++ b/DATA_goal/Junction_Flooding_303.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44984.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.854</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.568</v>
+        <v>11.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.087</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.404</v>
+        <v>34.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.109</v>
+        <v>28.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.476</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.139</v>
+        <v>48.14</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.197</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.464</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.516</v>
+        <v>12.52</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>13.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.516</v>
+        <v>14.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.985</v>
+        <v>3.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.407</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.605</v>
+        <v>17.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.538</v>
+        <v>10.54</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.696</v>
+        <v>0.7</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>181.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.698</v>
+        <v>34.7</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.452</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.236</v>
+        <v>23.24</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>12.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.385</v>
+        <v>23.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.115</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.026</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.599</v>
+        <v>10.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.433</v>
+        <v>14.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>43.683</v>
+        <v>43.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.417</v>
+        <v>6.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.317</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44984.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.93</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.69</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.25</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>57.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.09</v>
+        <v>14.32</v>
       </c>
     </row>
   </sheetData>
